--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -369,6 +369,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,26 +430,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,83 +742,83 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>2019</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2020</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>2019</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -827,382 +837,382 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1233,57 +1243,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1298,617 +1308,617 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>0.1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>37</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>37</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>200000</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>15</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>37</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>300000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>37</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>500</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>400000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>37</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>1000</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>350000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>15</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>37</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>37</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>37</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>2E-3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>130</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>37</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.01</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>300</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>37</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>0.1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>400</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>37</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>380</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>37</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>600</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>350000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>37</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>750</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>230000</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>37</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>900</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>180000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>37</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>1200</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>150000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>7</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>37</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>3</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>93</v>
       </c>
     </row>

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UST\2021 1학기\현장연구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,9 +369,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -430,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,12 +449,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1301,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1311,7 @@
     <col min="3" max="3" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -1343,7 +1336,7 @@
       <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1378,7 +1371,7 @@
       <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1413,7 +1406,7 @@
       <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1448,7 +1441,7 @@
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <v>200000</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1483,7 +1476,7 @@
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>300000</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1518,7 +1511,7 @@
       <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="1">
         <v>400000</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1553,7 +1546,7 @@
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="1">
         <v>350000</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1588,7 +1581,7 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1623,7 +1616,7 @@
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1658,7 +1651,7 @@
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <v>130</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1693,7 +1686,7 @@
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="1">
         <v>300</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1728,7 +1721,7 @@
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1">
         <v>400</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1763,7 +1756,7 @@
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <v>380</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1798,7 +1791,7 @@
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="1">
         <v>350000</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1833,7 +1826,7 @@
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="1">
         <v>230000</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1868,7 +1861,7 @@
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1">
         <v>180000</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1903,7 +1896,7 @@
       <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <v>150000</v>
       </c>
       <c r="G17" s="1" t="s">
